--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value868.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value868.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.160935059498611</v>
+        <v>1.854886412620544</v>
       </c>
       <c r="B1">
-        <v>2.596354485705196</v>
+        <v>3.140937089920044</v>
       </c>
       <c r="C1">
-        <v>4.241782652641007</v>
+        <v>2.705324172973633</v>
       </c>
       <c r="D1">
-        <v>2.686490181908892</v>
+        <v>2.202339172363281</v>
       </c>
       <c r="E1">
-        <v>1.160090810054509</v>
+        <v>1.45538318157196</v>
       </c>
     </row>
   </sheetData>
